--- a/Datasett/barne--og-ungdomsskoler-gjesdal-kommune.xlsx
+++ b/Datasett/barne--og-ungdomsskoler-gjesdal-kommune.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\oblig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\Project_Y\Datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1083,7 +1083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Datasett/barne--og-ungdomsskoler-gjesdal-kommune.xlsx
+++ b/Datasett/barne--og-ungdomsskoler-gjesdal-kommune.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>nord</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Bærland skole</t>
   </si>
   <si>
-    <t>Barliveien 5 4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t>http://www.minskole.no/baerland</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Dirdal skole</t>
   </si>
   <si>
-    <t>Krovegen 270 4333 OLTEDAL</t>
-  </si>
-  <si>
     <t>http://www.minskole.no/dirdal</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>Gjesdal ungdomsskole</t>
   </si>
   <si>
-    <t>Solåsveien 33 4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t>http://www.minskole.no/gjesdal</t>
   </si>
   <si>
@@ -168,9 +159,6 @@
     <t>Oltedal skole</t>
   </si>
   <si>
-    <t>Bygdaveien 56 4333 OLTEDAL</t>
-  </si>
-  <si>
     <t>http://www.minskule.no/oltedal</t>
   </si>
   <si>
@@ -198,9 +186,6 @@
     <t>Solås skole</t>
   </si>
   <si>
-    <t>Åfaret 4 4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t>http://www.minskole.no/solaas</t>
   </si>
   <si>
@@ -228,9 +213,6 @@
     <t>Ålgård skole</t>
   </si>
   <si>
-    <t>Rettedalen 13 4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t>http://www.minskole.no/algard</t>
   </si>
   <si>
@@ -241,6 +223,39 @@
   </si>
   <si>
     <t>http://www.gjesdal.kommune.no/handlers/bv.ashx/i0ddd5d92-4ecd-49eb-9fe6-6cbae1fb3be2/%c3%85lg%c3%a5rd%20skole</t>
+  </si>
+  <si>
+    <t>nummer</t>
+  </si>
+  <si>
+    <t>postnummer</t>
+  </si>
+  <si>
+    <t>poststed</t>
+  </si>
+  <si>
+    <t>Barliveien</t>
+  </si>
+  <si>
+    <t>ÅLGÅRD</t>
+  </si>
+  <si>
+    <t>Krovegen</t>
+  </si>
+  <si>
+    <t>OLTEDAL</t>
+  </si>
+  <si>
+    <t>Solåsveien</t>
+  </si>
+  <si>
+    <t>Bygdaveien</t>
+  </si>
+  <si>
+    <t>Åfaret</t>
+  </si>
+  <si>
+    <t>Rettedalen</t>
   </si>
 </sst>
 </file>
@@ -1081,15 +1096,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1109,28 +1128,37 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1147,233 +1175,287 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>4330</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3">
+        <v>270</v>
+      </c>
+      <c r="H3">
+        <v>4333</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
-        <v>23</v>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4">
         <v>33</v>
       </c>
-      <c r="O3" t="s">
-        <v>23</v>
+      <c r="H4">
+        <v>4330</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="K4" t="s">
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="L4" t="s">
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>4333</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="K5" t="s">
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="L5" t="s">
+      <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4330</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="H6" t="s">
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="J6" t="s">
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="K6" t="s">
+      <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="L6" t="s">
+      <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>4330</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" t="s">
+      <c r="M7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" t="s">
+      <c r="N7" t="s">
         <v>66</v>
       </c>
-      <c r="D7" t="s">
+      <c r="O7" t="s">
         <v>67</v>
       </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" t="s">
-        <v>23</v>
+      <c r="P7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
